--- a/steamcase/user/userStudentCourseListcase.xlsx
+++ b/steamcase/user/userStudentCourseListcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08EEE336-DD8B-4560-8593-66362DE699A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F707CC8-7B2D-4D1B-8028-D82183EB90A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,23 +59,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>recommandCourseNor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order-service/study/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看我的课程列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"currentPage":1
 "pageSize":10
 "resourceTypeId":1
-"keyword":"体验课"
+"keyword":"武汉大学AutoCAD技术视频"
 "phoneNo":"18916899938"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recommandCourseNor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order-service/study/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看我的课程列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,17 +501,17 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
